--- a/data/TemporalNMR_plant.xlsx
+++ b/data/TemporalNMR_plant.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/arjun_chakrawal_pnnl_gov/Documents/MONet/DynamicDRmodel/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/arjun_chakrawal_pnnl_gov/Documents/MONet/DynamicDRmodel/chemodiv-litter-model/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="690" documentId="11_07F15861874AF80F62355476585DCE3A8756860C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A1AB25C-B1F9-4780-A1EB-9F7A3CB973BC}"/>
+  <xr:revisionPtr revIDLastSave="735" documentId="11_07F15861874AF80F62355476585DCE3A8756860C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43394D65-ADCC-48D7-865E-568257892884}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="551" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,17 +46,6 @@
     <author>tc={F5A32AE6-E37D-4729-A54D-A94870919EAF}</author>
     <author>tc={18B023DE-6BF1-43E6-BAF1-3F343FF0B91D}</author>
     <author>tc={AB22B0EF-AF0D-4F88-BBAF-A1BFB3567315}</author>
-    <author>tc={10DEDF6D-70DB-4772-BC91-9BCE7A1402DD}</author>
-    <author>tc={8A8E0B82-DE89-4FA3-A09C-172CFE7D13E3}</author>
-    <author>tc={7655C9A3-B06C-469E-9DC5-79A16927E9AC}</author>
-    <author>tc={61505BF3-18DA-4ACF-9C2D-5706ED4D6C05}</author>
-    <author>tc={0FDF1883-619C-4D17-893C-8FA6AD44F782}</author>
-    <author>tc={B52756ED-E732-4879-A993-780830B4D9D3}</author>
-    <author>tc={9261AF63-284A-4C68-A262-B2B7B5D6BA2D}</author>
-    <author>tc={E35AB951-EA3E-4CD4-8986-8B20202B6978}</author>
-    <author>tc={438FB0DE-5303-4C8D-8077-345A6BB32FB6}</author>
-    <author>tc={1886D323-DA12-49B6-8917-C7EC1135AA5C}</author>
-    <author>tc={DE339B0F-1D0B-4223-9CCC-316188C4AD42}</author>
     <author>tc={F467A315-8850-4036-82DC-B963C75E5EB7}</author>
     <author>tc={9F1702AA-CFA5-4F2D-9BA1-F6EC5FEFF97C}</author>
     <author>tc={F6FED9C7-33D0-4D45-9400-E8E6D2F9D610}</author>
@@ -129,95 +118,7 @@
     Values read from Figure 1 https://doi.org/10.1080/00103620600767108</t>
       </text>
     </comment>
-    <comment ref="M152" authorId="8" shapeId="0" xr:uid="{10DEDF6D-70DB-4772-BC91-9BCE7A1402DD}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Monthly average taken from  table 2.2 https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2</t>
-      </text>
-    </comment>
-    <comment ref="M157" authorId="9" shapeId="0" xr:uid="{8A8E0B82-DE89-4FA3-A09C-172CFE7D13E3}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Monthly average taken from  table 2.2 https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2</t>
-      </text>
-    </comment>
-    <comment ref="M162" authorId="10" shapeId="0" xr:uid="{7655C9A3-B06C-469E-9DC5-79A16927E9AC}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Monthly average taken from  table 2.2 https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2</t>
-      </text>
-    </comment>
-    <comment ref="M166" authorId="11" shapeId="0" xr:uid="{61505BF3-18DA-4ACF-9C2D-5706ED4D6C05}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Monthly average taken from  table 2.2 https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2</t>
-      </text>
-    </comment>
-    <comment ref="M170" authorId="12" shapeId="0" xr:uid="{0FDF1883-619C-4D17-893C-8FA6AD44F782}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Monthly average taken from  table 2.2 https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2</t>
-      </text>
-    </comment>
-    <comment ref="M174" authorId="13" shapeId="0" xr:uid="{B52756ED-E732-4879-A993-780830B4D9D3}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Monthly average taken from  table 2.2 https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2</t>
-      </text>
-    </comment>
-    <comment ref="M178" authorId="14" shapeId="0" xr:uid="{9261AF63-284A-4C68-A262-B2B7B5D6BA2D}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Monthly average taken from  table 2.2 https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2</t>
-      </text>
-    </comment>
-    <comment ref="M182" authorId="15" shapeId="0" xr:uid="{E35AB951-EA3E-4CD4-8986-8B20202B6978}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Monthly average taken from  table 2.2 https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2</t>
-      </text>
-    </comment>
-    <comment ref="M186" authorId="16" shapeId="0" xr:uid="{438FB0DE-5303-4C8D-8077-345A6BB32FB6}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Monthly average taken from  table 2.2 https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2</t>
-      </text>
-    </comment>
-    <comment ref="M190" authorId="17" shapeId="0" xr:uid="{1886D323-DA12-49B6-8917-C7EC1135AA5C}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Monthly average taken from  table 2.2 https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2</t>
-      </text>
-    </comment>
-    <comment ref="M194" authorId="18" shapeId="0" xr:uid="{DE339B0F-1D0B-4223-9CCC-316188C4AD42}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Monthly average taken from  table 2.2 https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2</t>
-      </text>
-    </comment>
-    <comment ref="M204" authorId="19" shapeId="0" xr:uid="{F467A315-8850-4036-82DC-B963C75E5EB7}">
+    <comment ref="M204" authorId="8" shapeId="0" xr:uid="{F467A315-8850-4036-82DC-B963C75E5EB7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -225,7 +126,7 @@
     Supplementary of Pastorelli</t>
       </text>
     </comment>
-    <comment ref="N221" authorId="20" shapeId="0" xr:uid="{9F1702AA-CFA5-4F2D-9BA1-F6EC5FEFF97C}">
+    <comment ref="N221" authorId="9" shapeId="0" xr:uid="{9F1702AA-CFA5-4F2D-9BA1-F6EC5FEFF97C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -233,7 +134,7 @@
     Source: https://en.climate-data.org/europe/italy/campania-432/</t>
       </text>
     </comment>
-    <comment ref="M379" authorId="21" shapeId="0" xr:uid="{F6FED9C7-33D0-4D45-9400-E8E6D2F9D610}">
+    <comment ref="M379" authorId="10" shapeId="0" xr:uid="{F6FED9C7-33D0-4D45-9400-E8E6D2F9D610}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1501,105 +1402,6 @@
       </x:ext>
     </extLst>
   </threadedComment>
-  <threadedComment ref="M152" dT="2024-04-14T03:45:34.84" personId="{2278B182-5FEE-4CEB-A933-04BF943E7B0B}" id="{10DEDF6D-70DB-4772-BC91-9BCE7A1402DD}">
-    <text>Monthly average taken from  table 2.2 https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2</text>
-    <extLst>
-      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
-        <xltc2:checksum>3432625193</xltc2:checksum>
-        <xltc2:hyperlink startIndex="38" length="61" url="https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2"/>
-      </x:ext>
-    </extLst>
-  </threadedComment>
-  <threadedComment ref="M157" dT="2024-04-14T03:45:34.84" personId="{2278B182-5FEE-4CEB-A933-04BF943E7B0B}" id="{8A8E0B82-DE89-4FA3-A09C-172CFE7D13E3}">
-    <text>Monthly average taken from  table 2.2 https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2</text>
-    <extLst>
-      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
-        <xltc2:checksum>3432625193</xltc2:checksum>
-        <xltc2:hyperlink startIndex="38" length="61" url="https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2"/>
-      </x:ext>
-    </extLst>
-  </threadedComment>
-  <threadedComment ref="M162" dT="2024-04-14T03:45:34.84" personId="{2278B182-5FEE-4CEB-A933-04BF943E7B0B}" id="{7655C9A3-B06C-469E-9DC5-79A16927E9AC}">
-    <text>Monthly average taken from  table 2.2 https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2</text>
-    <extLst>
-      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
-        <xltc2:checksum>3432625193</xltc2:checksum>
-        <xltc2:hyperlink startIndex="38" length="61" url="https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2"/>
-      </x:ext>
-    </extLst>
-  </threadedComment>
-  <threadedComment ref="M166" dT="2024-04-14T03:45:34.84" personId="{2278B182-5FEE-4CEB-A933-04BF943E7B0B}" id="{61505BF3-18DA-4ACF-9C2D-5706ED4D6C05}">
-    <text>Monthly average taken from  table 2.2 https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2</text>
-    <extLst>
-      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
-        <xltc2:checksum>3432625193</xltc2:checksum>
-        <xltc2:hyperlink startIndex="38" length="61" url="https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2"/>
-      </x:ext>
-    </extLst>
-  </threadedComment>
-  <threadedComment ref="M170" dT="2024-04-14T03:45:34.84" personId="{2278B182-5FEE-4CEB-A933-04BF943E7B0B}" id="{0FDF1883-619C-4D17-893C-8FA6AD44F782}">
-    <text>Monthly average taken from  table 2.2 https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2</text>
-    <extLst>
-      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
-        <xltc2:checksum>3432625193</xltc2:checksum>
-        <xltc2:hyperlink startIndex="38" length="61" url="https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2"/>
-      </x:ext>
-    </extLst>
-  </threadedComment>
-  <threadedComment ref="M174" dT="2024-04-14T03:45:34.84" personId="{2278B182-5FEE-4CEB-A933-04BF943E7B0B}" id="{B52756ED-E732-4879-A993-780830B4D9D3}">
-    <text>Monthly average taken from  table 2.2 https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2</text>
-    <extLst>
-      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
-        <xltc2:checksum>3432625193</xltc2:checksum>
-        <xltc2:hyperlink startIndex="38" length="61" url="https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2"/>
-      </x:ext>
-    </extLst>
-  </threadedComment>
-  <threadedComment ref="M178" dT="2024-04-14T03:45:34.84" personId="{2278B182-5FEE-4CEB-A933-04BF943E7B0B}" id="{9261AF63-284A-4C68-A262-B2B7B5D6BA2D}">
-    <text>Monthly average taken from  table 2.2 https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2</text>
-    <extLst>
-      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
-        <xltc2:checksum>3432625193</xltc2:checksum>
-        <xltc2:hyperlink startIndex="38" length="61" url="https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2"/>
-      </x:ext>
-    </extLst>
-  </threadedComment>
-  <threadedComment ref="M182" dT="2024-04-14T03:45:34.84" personId="{2278B182-5FEE-4CEB-A933-04BF943E7B0B}" id="{E35AB951-EA3E-4CD4-8986-8B20202B6978}">
-    <text>Monthly average taken from  table 2.2 https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2</text>
-    <extLst>
-      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
-        <xltc2:checksum>3432625193</xltc2:checksum>
-        <xltc2:hyperlink startIndex="38" length="61" url="https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2"/>
-      </x:ext>
-    </extLst>
-  </threadedComment>
-  <threadedComment ref="M186" dT="2024-04-14T03:45:34.84" personId="{2278B182-5FEE-4CEB-A933-04BF943E7B0B}" id="{438FB0DE-5303-4C8D-8077-345A6BB32FB6}">
-    <text>Monthly average taken from  table 2.2 https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2</text>
-    <extLst>
-      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
-        <xltc2:checksum>3432625193</xltc2:checksum>
-        <xltc2:hyperlink startIndex="38" length="61" url="https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2"/>
-      </x:ext>
-    </extLst>
-  </threadedComment>
-  <threadedComment ref="M190" dT="2024-04-14T03:45:34.84" personId="{2278B182-5FEE-4CEB-A933-04BF943E7B0B}" id="{1886D323-DA12-49B6-8917-C7EC1135AA5C}">
-    <text>Monthly average taken from  table 2.2 https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2</text>
-    <extLst>
-      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
-        <xltc2:checksum>3432625193</xltc2:checksum>
-        <xltc2:hyperlink startIndex="38" length="61" url="https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2"/>
-      </x:ext>
-    </extLst>
-  </threadedComment>
-  <threadedComment ref="M194" dT="2024-04-14T03:45:34.84" personId="{2278B182-5FEE-4CEB-A933-04BF943E7B0B}" id="{DE339B0F-1D0B-4223-9CCC-316188C4AD42}">
-    <text>Monthly average taken from  table 2.2 https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2</text>
-    <extLst>
-      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
-        <xltc2:checksum>3432625193</xltc2:checksum>
-        <xltc2:hyperlink startIndex="38" length="61" url="https://link.springer.com/chapter/10.1007/978-4-431-67879-3_2"/>
-      </x:ext>
-    </extLst>
-  </threadedComment>
   <threadedComment ref="M204" dT="2024-04-14T05:14:09.52" personId="{2278B182-5FEE-4CEB-A933-04BF943E7B0B}" id="{F467A315-8850-4036-82DC-B963C75E5EB7}">
     <text>Supplementary of Pastorelli</text>
   </threadedComment>
@@ -1626,12 +1428,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:BZ390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z198" sqref="Z198"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z165" sqref="Z165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1639,15 +1440,15 @@
     <col min="1" max="2" width="9.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="1" customWidth="1"/>
-    <col min="5" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="1" customWidth="1"/>
-    <col min="13" max="15" width="9.140625" style="1"/>
+    <col min="5" max="7" width="9.140625" style="1"/>
+    <col min="8" max="9" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="21" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="15" width="9.140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="3" style="1" customWidth="1"/>
-    <col min="17" max="18" width="9.140625" style="1"/>
+    <col min="17" max="18" width="9.140625" style="1" customWidth="1"/>
     <col min="19" max="19" width="12.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.140625" style="1" customWidth="1"/>
     <col min="21" max="45" width="9.140625" style="1"/>
     <col min="46" max="46" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1792,7 +1593,7 @@
       </c>
       <c r="AU1" s="3"/>
     </row>
-    <row r="2" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2009</v>
       </c>
@@ -1923,7 +1724,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2009</v>
       </c>
@@ -2054,7 +1855,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2009</v>
       </c>
@@ -2185,7 +1986,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2009</v>
       </c>
@@ -2316,7 +2117,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2009</v>
       </c>
@@ -2447,7 +2248,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2009</v>
       </c>
@@ -2578,7 +2379,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2009</v>
       </c>
@@ -2709,7 +2510,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2009</v>
       </c>
@@ -2840,7 +2641,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2009</v>
       </c>
@@ -2971,7 +2772,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2009</v>
       </c>
@@ -3102,7 +2903,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2009</v>
       </c>
@@ -3233,7 +3034,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2009</v>
       </c>
@@ -3346,7 +3147,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2009</v>
       </c>
@@ -3471,7 +3272,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2009</v>
       </c>
@@ -3596,7 +3397,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2009</v>
       </c>
@@ -3721,7 +3522,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2009</v>
       </c>
@@ -3846,7 +3647,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2009</v>
       </c>
@@ -3971,7 +3772,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2009</v>
       </c>
@@ -4096,7 +3897,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2009</v>
       </c>
@@ -4221,7 +4022,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2009</v>
       </c>
@@ -4346,7 +4147,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2009</v>
       </c>
@@ -4471,7 +4272,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2009</v>
       </c>
@@ -4596,7 +4397,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2009</v>
       </c>
@@ -4715,7 +4516,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2009</v>
       </c>
@@ -4846,7 +4647,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2009</v>
       </c>
@@ -4965,7 +4766,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2009</v>
       </c>
@@ -5084,7 +4885,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2009</v>
       </c>
@@ -5215,7 +5016,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2009</v>
       </c>
@@ -5334,7 +5135,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2009</v>
       </c>
@@ -5453,7 +5254,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2009</v>
       </c>
@@ -5572,7 +5373,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2009</v>
       </c>
@@ -5691,7 +5492,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2009</v>
       </c>
@@ -5810,7 +5611,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2009</v>
       </c>
@@ -5941,7 +5742,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2000</v>
       </c>
@@ -6054,7 +5855,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2000</v>
       </c>
@@ -6167,7 +5968,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2000</v>
       </c>
@@ -6280,7 +6081,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2000</v>
       </c>
@@ -6393,7 +6194,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2000</v>
       </c>
@@ -6506,7 +6307,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2000</v>
       </c>
@@ -6619,7 +6420,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2000</v>
       </c>
@@ -6732,7 +6533,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2000</v>
       </c>
@@ -6845,7 +6646,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2000</v>
       </c>
@@ -6958,7 +6759,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2000</v>
       </c>
@@ -7071,7 +6872,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2000</v>
       </c>
@@ -7184,7 +6985,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2000</v>
       </c>
@@ -7297,7 +7098,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2000</v>
       </c>
@@ -7410,7 +7211,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2000</v>
       </c>
@@ -7523,7 +7324,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2000</v>
       </c>
@@ -7636,7 +7437,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2000</v>
       </c>
@@ -7749,7 +7550,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2000</v>
       </c>
@@ -7862,7 +7663,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2000</v>
       </c>
@@ -7975,7 +7776,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2000</v>
       </c>
@@ -8088,7 +7889,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2000</v>
       </c>
@@ -8201,7 +8002,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2000</v>
       </c>
@@ -8314,7 +8115,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2000</v>
       </c>
@@ -8427,7 +8228,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2000</v>
       </c>
@@ -8540,7 +8341,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2000</v>
       </c>
@@ -8653,7 +8454,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2000</v>
       </c>
@@ -8766,7 +8567,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2000</v>
       </c>
@@ -8879,7 +8680,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2000</v>
       </c>
@@ -8992,7 +8793,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2000</v>
       </c>
@@ -9105,7 +8906,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2000</v>
       </c>
@@ -9218,7 +9019,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2000</v>
       </c>
@@ -9331,7 +9132,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2000</v>
       </c>
@@ -9444,7 +9245,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2000</v>
       </c>
@@ -9557,7 +9358,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2000</v>
       </c>
@@ -9670,7 +9471,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2000</v>
       </c>
@@ -9783,7 +9584,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2000</v>
       </c>
@@ -9896,7 +9697,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2000</v>
       </c>
@@ -10009,7 +9810,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2017</v>
       </c>
@@ -10119,7 +9920,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2017</v>
       </c>
@@ -10229,7 +10030,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2017</v>
       </c>
@@ -10339,7 +10140,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>2017</v>
       </c>
@@ -10449,7 +10250,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>2017</v>
       </c>
@@ -10559,7 +10360,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>2017</v>
       </c>
@@ -10669,7 +10470,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>2017</v>
       </c>
@@ -10779,7 +10580,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>2017</v>
       </c>
@@ -10889,7 +10690,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>2017</v>
       </c>
@@ -10999,7 +10800,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>2017</v>
       </c>
@@ -11109,7 +10910,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>2017</v>
       </c>
@@ -11219,7 +11020,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>2017</v>
       </c>
@@ -11329,7 +11130,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>2017</v>
       </c>
@@ -11439,7 +11240,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>2017</v>
       </c>
@@ -11549,7 +11350,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>2017</v>
       </c>
@@ -11659,7 +11460,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>2005</v>
       </c>
@@ -11782,7 +11583,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>2005</v>
       </c>
@@ -11865,7 +11666,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="88" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>2005</v>
       </c>
@@ -11948,7 +11749,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="89" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>2005</v>
       </c>
@@ -12031,7 +11832,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="90" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>2005</v>
       </c>
@@ -12114,7 +11915,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="91" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>2005</v>
       </c>
@@ -12197,7 +11998,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="92" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>2005</v>
       </c>
@@ -12319,7 +12120,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>2005</v>
       </c>
@@ -12441,7 +12242,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>2005</v>
       </c>
@@ -12564,7 +12365,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>2005</v>
       </c>
@@ -12647,7 +12448,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="96" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>2005</v>
       </c>
@@ -12730,7 +12531,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="97" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>2005</v>
       </c>
@@ -12813,7 +12614,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="98" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>2005</v>
       </c>
@@ -12896,7 +12697,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="99" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>2005</v>
       </c>
@@ -12979,7 +12780,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="100" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>2005</v>
       </c>
@@ -13101,7 +12902,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>2005</v>
       </c>
@@ -13223,7 +13024,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>2005</v>
       </c>
@@ -13346,7 +13147,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>2005</v>
       </c>
@@ -13429,7 +13230,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="104" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>2005</v>
       </c>
@@ -13512,7 +13313,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="105" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>2005</v>
       </c>
@@ -13595,7 +13396,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="106" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>2005</v>
       </c>
@@ -13678,7 +13479,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="107" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>2005</v>
       </c>
@@ -13761,7 +13562,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="108" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>2005</v>
       </c>
@@ -13883,7 +13684,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>2005</v>
       </c>
@@ -14005,7 +13806,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>2004</v>
       </c>
@@ -14121,7 +13922,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>2004</v>
       </c>
@@ -14237,7 +14038,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>2004</v>
       </c>
@@ -14348,7 +14149,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>2004</v>
       </c>
@@ -14459,7 +14260,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>2004</v>
       </c>
@@ -14573,7 +14374,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>2004</v>
       </c>
@@ -14687,7 +14488,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>2007</v>
       </c>
@@ -14803,7 +14604,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>2007</v>
       </c>
@@ -14911,7 +14712,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="118" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>2007</v>
       </c>
@@ -15019,7 +14820,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>2007</v>
       </c>
@@ -15127,7 +14928,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>2007</v>
       </c>
@@ -15243,7 +15044,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>2007</v>
       </c>
@@ -15351,7 +15152,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>2007</v>
       </c>
@@ -15459,7 +15260,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>2007</v>
       </c>
@@ -15567,7 +15368,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>2007</v>
       </c>
@@ -15683,7 +15484,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>2007</v>
       </c>
@@ -15791,7 +15592,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="126" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>2007</v>
       </c>
@@ -15899,7 +15700,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="127" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>2007</v>
       </c>
@@ -16007,7 +15808,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>2007</v>
       </c>
@@ -16123,7 +15924,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>2007</v>
       </c>
@@ -16231,7 +16032,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>2007</v>
       </c>
@@ -16339,7 +16140,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="131" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>2007</v>
       </c>
@@ -16447,7 +16248,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="132" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>2007</v>
       </c>
@@ -16563,7 +16364,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="133" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>2007</v>
       </c>
@@ -16671,7 +16472,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>2007</v>
       </c>
@@ -16779,7 +16580,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="135" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>2007</v>
       </c>
@@ -16887,7 +16688,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="136" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>2007</v>
       </c>
@@ -16979,7 +16780,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="137" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>2007</v>
       </c>
@@ -17087,7 +16888,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="138" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>2007</v>
       </c>
@@ -17195,7 +16996,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>2007</v>
       </c>
@@ -17303,7 +17104,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>2007</v>
       </c>
@@ -17419,7 +17220,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>2007</v>
       </c>
@@ -17527,7 +17328,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>2007</v>
       </c>
@@ -17635,7 +17436,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="143" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>2007</v>
       </c>
@@ -17743,7 +17544,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="144" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>2007</v>
       </c>
@@ -17859,7 +17660,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="145" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>2007</v>
       </c>
@@ -17967,7 +17768,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="146" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>2007</v>
       </c>
@@ -18075,7 +17876,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="147" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>2007</v>
       </c>
@@ -18183,7 +17984,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="148" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>2007</v>
       </c>
@@ -18299,7 +18100,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="149" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>2007</v>
       </c>
@@ -18407,7 +18208,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="150" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>2007</v>
       </c>
@@ -18515,7 +18316,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="151" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>2007</v>
       </c>
@@ -18623,7 +18424,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="152" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>2009</v>
       </c>
@@ -18661,10 +18462,10 @@
         <v>8.9</v>
       </c>
       <c r="N152" s="1">
-        <v>21</v>
+        <v>10.7</v>
       </c>
       <c r="O152" s="1">
-        <v>516</v>
+        <v>2031</v>
       </c>
       <c r="P152" s="1">
         <v>0</v>
@@ -18724,7 +18525,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="153" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>2009</v>
       </c>
@@ -18763,10 +18564,10 @@
         <v>15.4</v>
       </c>
       <c r="N153" s="1">
-        <v>21</v>
+        <v>10.7</v>
       </c>
       <c r="O153" s="1">
-        <v>516</v>
+        <v>2031</v>
       </c>
       <c r="P153" s="1">
         <v>0</v>
@@ -18799,7 +18600,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="154" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>2009</v>
       </c>
@@ -18838,10 +18639,10 @@
         <v>8.9</v>
       </c>
       <c r="N154" s="1">
-        <v>21</v>
+        <v>10.7</v>
       </c>
       <c r="O154" s="1">
-        <v>516</v>
+        <v>2031</v>
       </c>
       <c r="P154" s="1">
         <v>0</v>
@@ -18901,7 +18702,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="155" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>2009</v>
       </c>
@@ -18940,10 +18741,10 @@
         <v>8.9</v>
       </c>
       <c r="N155" s="1">
-        <v>21</v>
+        <v>10.7</v>
       </c>
       <c r="O155" s="1">
-        <v>516</v>
+        <v>2031</v>
       </c>
       <c r="P155" s="1">
         <v>0</v>
@@ -19003,7 +18804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="156" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>2009</v>
       </c>
@@ -19042,10 +18843,10 @@
         <v>8.9</v>
       </c>
       <c r="N156" s="1">
-        <v>21</v>
+        <v>10.7</v>
       </c>
       <c r="O156" s="1">
-        <v>516</v>
+        <v>2031</v>
       </c>
       <c r="P156" s="1">
         <v>0</v>
@@ -19105,7 +18906,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>2009</v>
       </c>
@@ -19143,10 +18944,10 @@
         <v>8.9</v>
       </c>
       <c r="N157" s="1">
-        <v>21</v>
+        <v>10.7</v>
       </c>
       <c r="O157" s="1">
-        <v>516</v>
+        <v>2031</v>
       </c>
       <c r="P157" s="1">
         <v>0</v>
@@ -19206,7 +19007,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="158" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>2009</v>
       </c>
@@ -19245,10 +19046,10 @@
         <v>15.4</v>
       </c>
       <c r="N158" s="1">
-        <v>21</v>
+        <v>10.7</v>
       </c>
       <c r="O158" s="1">
-        <v>516</v>
+        <v>2031</v>
       </c>
       <c r="P158" s="1">
         <v>0</v>
@@ -19281,7 +19082,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="159" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>2009</v>
       </c>
@@ -19320,10 +19121,10 @@
         <v>8.9</v>
       </c>
       <c r="N159" s="1">
-        <v>21</v>
+        <v>10.7</v>
       </c>
       <c r="O159" s="1">
-        <v>516</v>
+        <v>2031</v>
       </c>
       <c r="P159" s="1">
         <v>0</v>
@@ -19383,7 +19184,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="160" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>2009</v>
       </c>
@@ -19422,10 +19223,10 @@
         <v>8.9</v>
       </c>
       <c r="N160" s="1">
-        <v>21</v>
+        <v>10.7</v>
       </c>
       <c r="O160" s="1">
-        <v>516</v>
+        <v>2031</v>
       </c>
       <c r="P160" s="1">
         <v>0</v>
@@ -19485,7 +19286,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>2009</v>
       </c>
@@ -19524,10 +19325,10 @@
         <v>8.9</v>
       </c>
       <c r="N161" s="1">
-        <v>21</v>
+        <v>10.7</v>
       </c>
       <c r="O161" s="1">
-        <v>516</v>
+        <v>2031</v>
       </c>
       <c r="P161" s="1">
         <v>0</v>
@@ -19587,7 +19388,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="162" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>2011</v>
       </c>
@@ -19625,10 +19426,10 @@
         <v>8.9</v>
       </c>
       <c r="N162" s="1">
-        <v>21</v>
+        <v>13.7</v>
       </c>
       <c r="O162" s="1">
-        <v>516</v>
+        <v>1400</v>
       </c>
       <c r="Q162" s="1" t="s">
         <v>58</v>
@@ -19685,7 +19486,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="163" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>2011</v>
       </c>
@@ -19724,10 +19525,10 @@
         <v>15.4</v>
       </c>
       <c r="N163" s="1">
-        <v>21</v>
+        <v>13.7</v>
       </c>
       <c r="O163" s="1">
-        <v>516</v>
+        <v>1400</v>
       </c>
       <c r="Q163" s="1" t="s">
         <v>58</v>
@@ -19784,7 +19585,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="164" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>2011</v>
       </c>
@@ -19823,10 +19624,10 @@
         <v>8.9</v>
       </c>
       <c r="N164" s="1">
-        <v>21</v>
+        <v>13.7</v>
       </c>
       <c r="O164" s="1">
-        <v>516</v>
+        <v>1400</v>
       </c>
       <c r="Q164" s="1" t="s">
         <v>58</v>
@@ -19883,7 +19684,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="165" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>2011</v>
       </c>
@@ -19922,10 +19723,10 @@
         <v>8.9</v>
       </c>
       <c r="N165" s="1">
-        <v>21</v>
+        <v>13.7</v>
       </c>
       <c r="O165" s="1">
-        <v>516</v>
+        <v>1400</v>
       </c>
       <c r="Q165" s="1" t="s">
         <v>58</v>
@@ -19982,7 +19783,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="166" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>2011</v>
       </c>
@@ -20020,10 +19821,10 @@
         <v>8.9</v>
       </c>
       <c r="N166" s="1">
-        <v>21</v>
+        <v>13.7</v>
       </c>
       <c r="O166" s="1">
-        <v>516</v>
+        <v>1400</v>
       </c>
       <c r="Q166" s="1" t="s">
         <v>58</v>
@@ -20080,7 +19881,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="167" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>2011</v>
       </c>
@@ -20119,10 +19920,10 @@
         <v>15.4</v>
       </c>
       <c r="N167" s="1">
-        <v>21</v>
+        <v>13.7</v>
       </c>
       <c r="O167" s="1">
-        <v>516</v>
+        <v>1400</v>
       </c>
       <c r="Q167" s="1" t="s">
         <v>58</v>
@@ -20179,7 +19980,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="168" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>2011</v>
       </c>
@@ -20218,10 +20019,10 @@
         <v>8.9</v>
       </c>
       <c r="N168" s="1">
-        <v>21</v>
+        <v>13.7</v>
       </c>
       <c r="O168" s="1">
-        <v>516</v>
+        <v>1400</v>
       </c>
       <c r="Q168" s="1" t="s">
         <v>58</v>
@@ -20278,7 +20079,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="169" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>2011</v>
       </c>
@@ -20317,10 +20118,10 @@
         <v>8.9</v>
       </c>
       <c r="N169" s="1">
-        <v>21</v>
+        <v>13.7</v>
       </c>
       <c r="O169" s="1">
-        <v>516</v>
+        <v>1400</v>
       </c>
       <c r="Q169" s="1" t="s">
         <v>58</v>
@@ -20377,7 +20178,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="170" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>2013</v>
       </c>
@@ -20415,10 +20216,10 @@
         <v>8.9</v>
       </c>
       <c r="N170" s="1">
-        <v>21</v>
+        <v>9.1</v>
       </c>
       <c r="O170" s="1">
-        <v>516</v>
+        <v>1111</v>
       </c>
       <c r="Q170" s="1" t="s">
         <v>58</v>
@@ -20466,7 +20267,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="171" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>2013</v>
       </c>
@@ -20505,10 +20306,10 @@
         <v>15.4</v>
       </c>
       <c r="N171" s="1">
-        <v>21</v>
+        <v>9.1</v>
       </c>
       <c r="O171" s="1">
-        <v>516</v>
+        <v>1111</v>
       </c>
       <c r="Q171" s="1" t="s">
         <v>58</v>
@@ -20556,7 +20357,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="172" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>2013</v>
       </c>
@@ -20595,10 +20396,10 @@
         <v>8.9</v>
       </c>
       <c r="N172" s="1">
-        <v>21</v>
+        <v>9.1</v>
       </c>
       <c r="O172" s="1">
-        <v>516</v>
+        <v>1111</v>
       </c>
       <c r="Q172" s="1" t="s">
         <v>58</v>
@@ -20646,7 +20447,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="173" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>2013</v>
       </c>
@@ -20685,10 +20486,10 @@
         <v>8.9</v>
       </c>
       <c r="N173" s="1">
-        <v>21</v>
+        <v>9.1</v>
       </c>
       <c r="O173" s="1">
-        <v>516</v>
+        <v>1111</v>
       </c>
       <c r="Q173" s="1" t="s">
         <v>58</v>
@@ -20736,7 +20537,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="174" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>2013</v>
       </c>
@@ -20774,10 +20575,10 @@
         <v>8.9</v>
       </c>
       <c r="N174" s="1">
-        <v>21</v>
+        <v>9.1</v>
       </c>
       <c r="O174" s="1">
-        <v>516</v>
+        <v>1111</v>
       </c>
       <c r="Q174" s="1" t="s">
         <v>58</v>
@@ -20825,7 +20626,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="175" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>2013</v>
       </c>
@@ -20864,10 +20665,10 @@
         <v>15.4</v>
       </c>
       <c r="N175" s="1">
-        <v>21</v>
+        <v>9.1</v>
       </c>
       <c r="O175" s="1">
-        <v>516</v>
+        <v>1111</v>
       </c>
       <c r="Q175" s="1" t="s">
         <v>58</v>
@@ -20915,7 +20716,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="176" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>2013</v>
       </c>
@@ -20954,10 +20755,10 @@
         <v>8.9</v>
       </c>
       <c r="N176" s="1">
-        <v>21</v>
+        <v>9.1</v>
       </c>
       <c r="O176" s="1">
-        <v>516</v>
+        <v>1111</v>
       </c>
       <c r="Q176" s="1" t="s">
         <v>58</v>
@@ -21005,7 +20806,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="177" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>2013</v>
       </c>
@@ -21044,10 +20845,10 @@
         <v>8.9</v>
       </c>
       <c r="N177" s="1">
-        <v>21</v>
+        <v>9.1</v>
       </c>
       <c r="O177" s="1">
-        <v>516</v>
+        <v>1111</v>
       </c>
       <c r="Q177" s="1" t="s">
         <v>58</v>
@@ -21095,7 +20896,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>2013</v>
       </c>
@@ -21133,10 +20934,10 @@
         <v>8.9</v>
       </c>
       <c r="N178" s="1">
-        <v>21</v>
+        <v>10.7</v>
       </c>
       <c r="O178" s="1">
-        <v>516</v>
+        <v>2031</v>
       </c>
       <c r="Q178" s="1" t="s">
         <v>58</v>
@@ -21156,6 +20957,15 @@
       <c r="W178" s="1">
         <v>100</v>
       </c>
+      <c r="X178" s="1">
+        <v>516.20000000000005</v>
+      </c>
+      <c r="Y178" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="Z178" s="1">
+        <v>46.1</v>
+      </c>
       <c r="AE178" s="1">
         <v>0.19800000000000001</v>
       </c>
@@ -21184,7 +20994,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="179" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>2013</v>
       </c>
@@ -21223,10 +21033,10 @@
         <v>15.4</v>
       </c>
       <c r="N179" s="1">
-        <v>21</v>
+        <v>10.7</v>
       </c>
       <c r="O179" s="1">
-        <v>516</v>
+        <v>2031</v>
       </c>
       <c r="Q179" s="1" t="s">
         <v>58</v>
@@ -21246,6 +21056,15 @@
       <c r="W179" s="1">
         <v>76.099999999999994</v>
       </c>
+      <c r="X179" s="1">
+        <v>505</v>
+      </c>
+      <c r="Y179" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="Z179" s="1">
+        <v>26.4</v>
+      </c>
       <c r="AE179" s="1">
         <v>0.22500000000000001</v>
       </c>
@@ -21274,7 +21093,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="180" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>2013</v>
       </c>
@@ -21313,10 +21132,10 @@
         <v>8.9</v>
       </c>
       <c r="N180" s="1">
-        <v>21</v>
+        <v>10.7</v>
       </c>
       <c r="O180" s="1">
-        <v>516</v>
+        <v>2031</v>
       </c>
       <c r="Q180" s="1" t="s">
         <v>58</v>
@@ -21336,6 +21155,15 @@
       <c r="W180" s="1">
         <v>49.3</v>
       </c>
+      <c r="X180" s="1">
+        <v>465.9</v>
+      </c>
+      <c r="Y180" s="1">
+        <v>21.3</v>
+      </c>
+      <c r="Z180" s="1">
+        <v>21.9</v>
+      </c>
       <c r="AE180" s="1">
         <v>0.24199999999999999</v>
       </c>
@@ -21364,7 +21192,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="181" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>2013</v>
       </c>
@@ -21403,10 +21231,10 @@
         <v>8.9</v>
       </c>
       <c r="N181" s="1">
-        <v>21</v>
+        <v>10.7</v>
       </c>
       <c r="O181" s="1">
-        <v>516</v>
+        <v>2031</v>
       </c>
       <c r="Q181" s="1" t="s">
         <v>58</v>
@@ -21426,6 +21254,15 @@
       <c r="W181" s="1">
         <v>32.700000000000003</v>
       </c>
+      <c r="X181" s="1">
+        <v>458.8</v>
+      </c>
+      <c r="Y181" s="1">
+        <v>22.9</v>
+      </c>
+      <c r="Z181" s="1">
+        <v>20</v>
+      </c>
       <c r="AE181" s="1">
         <v>0.25600000000000001</v>
       </c>
@@ -21454,7 +21291,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="182" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>2013</v>
       </c>
@@ -21492,10 +21329,10 @@
         <v>8.9</v>
       </c>
       <c r="N182" s="1">
-        <v>21</v>
+        <v>10.7</v>
       </c>
       <c r="O182" s="1">
-        <v>516</v>
+        <v>2031</v>
       </c>
       <c r="Q182" s="1" t="s">
         <v>58</v>
@@ -21515,6 +21352,15 @@
       <c r="W182" s="1">
         <v>100</v>
       </c>
+      <c r="X182" s="1">
+        <v>522.79999999999995</v>
+      </c>
+      <c r="Y182" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="Z182" s="1">
+        <v>45.1</v>
+      </c>
       <c r="AE182" s="1">
         <v>0.222</v>
       </c>
@@ -21543,7 +21389,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="183" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>2013</v>
       </c>
@@ -21582,10 +21428,10 @@
         <v>15.4</v>
       </c>
       <c r="N183" s="1">
-        <v>21</v>
+        <v>10.7</v>
       </c>
       <c r="O183" s="1">
-        <v>516</v>
+        <v>2031</v>
       </c>
       <c r="Q183" s="1" t="s">
         <v>58</v>
@@ -21605,6 +21451,15 @@
       <c r="W183" s="1">
         <v>70</v>
       </c>
+      <c r="X183" s="1">
+        <v>524.4</v>
+      </c>
+      <c r="Y183" s="1">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="Z183" s="1">
+        <v>28.2</v>
+      </c>
       <c r="AE183" s="1">
         <v>0.22500000000000001</v>
       </c>
@@ -21633,7 +21488,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="184" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>2013</v>
       </c>
@@ -21672,10 +21527,10 @@
         <v>8.9</v>
       </c>
       <c r="N184" s="1">
-        <v>21</v>
+        <v>10.7</v>
       </c>
       <c r="O184" s="1">
-        <v>516</v>
+        <v>2031</v>
       </c>
       <c r="Q184" s="1" t="s">
         <v>58</v>
@@ -21695,6 +21550,15 @@
       <c r="W184" s="1">
         <v>42.8</v>
       </c>
+      <c r="X184" s="1">
+        <v>500.3</v>
+      </c>
+      <c r="Y184" s="1">
+        <v>22.6</v>
+      </c>
+      <c r="Z184" s="1">
+        <v>22.2</v>
+      </c>
       <c r="AE184" s="1">
         <v>0.23899999999999999</v>
       </c>
@@ -21723,7 +21587,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="185" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>2013</v>
       </c>
@@ -21762,10 +21626,10 @@
         <v>8.9</v>
       </c>
       <c r="N185" s="1">
-        <v>21</v>
+        <v>10.7</v>
       </c>
       <c r="O185" s="1">
-        <v>516</v>
+        <v>2031</v>
       </c>
       <c r="Q185" s="1" t="s">
         <v>58</v>
@@ -21785,6 +21649,15 @@
       <c r="W185" s="1">
         <v>26.9</v>
       </c>
+      <c r="X185" s="1">
+        <v>416.8</v>
+      </c>
+      <c r="Y185" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="Z185" s="1">
+        <v>18.8</v>
+      </c>
       <c r="AE185" s="1">
         <v>0.26600000000000001</v>
       </c>
@@ -21813,7 +21686,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="186" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>2013</v>
       </c>
@@ -21851,10 +21724,10 @@
         <v>8.9</v>
       </c>
       <c r="N186" s="1">
-        <v>21</v>
+        <v>13.7</v>
       </c>
       <c r="O186" s="1">
-        <v>516</v>
+        <v>1400</v>
       </c>
       <c r="Q186" s="1" t="s">
         <v>58</v>
@@ -21874,6 +21747,15 @@
       <c r="W186" s="1">
         <v>100</v>
       </c>
+      <c r="X186" s="1">
+        <v>609.4</v>
+      </c>
+      <c r="Y186" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="Z186" s="1">
+        <v>57.4</v>
+      </c>
       <c r="AE186" s="1">
         <v>0.28100000000000003</v>
       </c>
@@ -21902,7 +21784,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="187" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>2013</v>
       </c>
@@ -21941,10 +21823,10 @@
         <v>15.4</v>
       </c>
       <c r="N187" s="1">
-        <v>21</v>
+        <v>13.7</v>
       </c>
       <c r="O187" s="1">
-        <v>516</v>
+        <v>1400</v>
       </c>
       <c r="Q187" s="1" t="s">
         <v>58</v>
@@ -21964,6 +21846,15 @@
       <c r="W187" s="1">
         <v>48.1</v>
       </c>
+      <c r="X187" s="1">
+        <v>576.79999999999995</v>
+      </c>
+      <c r="Y187" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="Z187" s="1">
+        <v>34.6</v>
+      </c>
       <c r="AE187" s="1">
         <v>0.313</v>
       </c>
@@ -21992,7 +21883,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="188" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>2013</v>
       </c>
@@ -22031,10 +21922,10 @@
         <v>8.9</v>
       </c>
       <c r="N188" s="1">
-        <v>21</v>
+        <v>13.7</v>
       </c>
       <c r="O188" s="1">
-        <v>516</v>
+        <v>1400</v>
       </c>
       <c r="Q188" s="1" t="s">
         <v>58</v>
@@ -22054,6 +21945,15 @@
       <c r="W188" s="1">
         <v>41.9</v>
       </c>
+      <c r="X188" s="1">
+        <v>572.1</v>
+      </c>
+      <c r="Y188" s="1">
+        <v>19.7</v>
+      </c>
+      <c r="Z188" s="1">
+        <v>29.1</v>
+      </c>
       <c r="AE188" s="1">
         <v>0.25600000000000001</v>
       </c>
@@ -22082,7 +21982,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="189" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>2013</v>
       </c>
@@ -22121,10 +22021,10 @@
         <v>8.9</v>
       </c>
       <c r="N189" s="1">
-        <v>21</v>
+        <v>13.7</v>
       </c>
       <c r="O189" s="1">
-        <v>516</v>
+        <v>1400</v>
       </c>
       <c r="Q189" s="1" t="s">
         <v>58</v>
@@ -22144,6 +22044,15 @@
       <c r="W189" s="1">
         <v>33.799999999999997</v>
       </c>
+      <c r="X189" s="1">
+        <v>559.4</v>
+      </c>
+      <c r="Y189" s="1">
+        <v>21.9</v>
+      </c>
+      <c r="Z189" s="1">
+        <v>25.7</v>
+      </c>
       <c r="AE189" s="1">
         <v>0.254</v>
       </c>
@@ -22172,7 +22081,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="190" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>2013</v>
       </c>
@@ -22210,10 +22119,10 @@
         <v>8.9</v>
       </c>
       <c r="N190" s="1">
-        <v>21</v>
+        <v>13.7</v>
       </c>
       <c r="O190" s="1">
-        <v>516</v>
+        <v>1400</v>
       </c>
       <c r="Q190" s="1" t="s">
         <v>58</v>
@@ -22233,6 +22142,15 @@
       <c r="W190" s="1">
         <v>100</v>
       </c>
+      <c r="X190" s="1">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="Y190" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="Z190" s="1">
+        <v>53.2</v>
+      </c>
       <c r="AE190" s="1">
         <v>0.28599999999999998</v>
       </c>
@@ -22261,7 +22179,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="191" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>2013</v>
       </c>
@@ -22300,10 +22218,10 @@
         <v>15.4</v>
       </c>
       <c r="N191" s="1">
-        <v>21</v>
+        <v>13.7</v>
       </c>
       <c r="O191" s="1">
-        <v>516</v>
+        <v>1400</v>
       </c>
       <c r="Q191" s="1" t="s">
         <v>58</v>
@@ -22323,6 +22241,15 @@
       <c r="W191" s="1">
         <v>59.3</v>
       </c>
+      <c r="X191" s="1">
+        <v>569.20000000000005</v>
+      </c>
+      <c r="Y191" s="1">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="Z191" s="1">
+        <v>28.5</v>
+      </c>
       <c r="AE191" s="1">
         <v>0.29199999999999998</v>
       </c>
@@ -22351,7 +22278,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="192" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>2013</v>
       </c>
@@ -22390,10 +22317,10 @@
         <v>8.9</v>
       </c>
       <c r="N192" s="1">
-        <v>21</v>
+        <v>13.7</v>
       </c>
       <c r="O192" s="1">
-        <v>516</v>
+        <v>1400</v>
       </c>
       <c r="Q192" s="1" t="s">
         <v>58</v>
@@ -22413,6 +22340,15 @@
       <c r="W192" s="1">
         <v>48.9</v>
       </c>
+      <c r="X192" s="1">
+        <v>572.79999999999995</v>
+      </c>
+      <c r="Y192" s="1">
+        <v>21.1</v>
+      </c>
+      <c r="Z192" s="1">
+        <v>27.2</v>
+      </c>
       <c r="AE192" s="1">
         <v>0.30399999999999999</v>
       </c>
@@ -22441,7 +22377,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="193" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>2013</v>
       </c>
@@ -22480,10 +22416,10 @@
         <v>8.9</v>
       </c>
       <c r="N193" s="1">
-        <v>21</v>
+        <v>13.7</v>
       </c>
       <c r="O193" s="1">
-        <v>516</v>
+        <v>1400</v>
       </c>
       <c r="Q193" s="1" t="s">
         <v>58</v>
@@ -22503,6 +22439,15 @@
       <c r="W193" s="1">
         <v>31.4</v>
       </c>
+      <c r="X193" s="1">
+        <v>538.5</v>
+      </c>
+      <c r="Y193" s="1">
+        <v>22</v>
+      </c>
+      <c r="Z193" s="1">
+        <v>24.8</v>
+      </c>
       <c r="AE193" s="1">
         <v>0.28599999999999998</v>
       </c>
@@ -22531,7 +22476,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="194" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>2013</v>
       </c>
@@ -22569,10 +22514,10 @@
         <v>8.9</v>
       </c>
       <c r="N194" s="1">
-        <v>21</v>
+        <v>22.9</v>
       </c>
       <c r="O194" s="1">
-        <v>516</v>
+        <v>2204</v>
       </c>
       <c r="Q194" s="1" t="s">
         <v>58</v>
@@ -22620,7 +22565,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="195" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>2013</v>
       </c>
@@ -22659,10 +22604,10 @@
         <v>15.4</v>
       </c>
       <c r="N195" s="1">
-        <v>21</v>
+        <v>22.9</v>
       </c>
       <c r="O195" s="1">
-        <v>516</v>
+        <v>2204</v>
       </c>
       <c r="Q195" s="1" t="s">
         <v>58</v>
@@ -22710,7 +22655,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>2013</v>
       </c>
@@ -22749,10 +22694,10 @@
         <v>8.9</v>
       </c>
       <c r="N196" s="1">
-        <v>21</v>
+        <v>22.9</v>
       </c>
       <c r="O196" s="1">
-        <v>516</v>
+        <v>2204</v>
       </c>
       <c r="Q196" s="1" t="s">
         <v>58</v>
@@ -22800,7 +22745,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="197" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>2013</v>
       </c>
@@ -22839,10 +22784,10 @@
         <v>8.9</v>
       </c>
       <c r="N197" s="1">
-        <v>21</v>
+        <v>22.9</v>
       </c>
       <c r="O197" s="1">
-        <v>516</v>
+        <v>2204</v>
       </c>
       <c r="Q197" s="1" t="s">
         <v>58</v>
@@ -22943,8 +22888,15 @@
       <c r="W198" s="1">
         <v>100</v>
       </c>
+      <c r="X198" s="1">
+        <v>443</v>
+      </c>
       <c r="Y198" s="1">
         <v>14.7</v>
+      </c>
+      <c r="Z198" s="1">
+        <f>X198/Y198</f>
+        <v>30.136054421768709</v>
       </c>
       <c r="AA198" s="1">
         <v>420.39673913043481</v>
@@ -23413,7 +23365,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="204" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>2021</v>
       </c>
@@ -23523,7 +23475,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="205" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>2021</v>
       </c>
@@ -23635,7 +23587,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="206" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>2021</v>
       </c>
@@ -23746,7 +23698,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="207" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>2021</v>
       </c>
@@ -23857,7 +23809,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="208" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>2021</v>
       </c>
@@ -23968,7 +23920,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="209" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>2021</v>
       </c>
@@ -24079,7 +24031,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="210" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>2021</v>
       </c>
@@ -24193,7 +24145,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="211" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D211" s="1" t="s">
         <v>156</v>
       </c>
@@ -24298,7 +24250,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="212" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D212" s="1" t="s">
         <v>156</v>
       </c>
@@ -24403,7 +24355,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="213" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D213" s="1" t="s">
         <v>156</v>
       </c>
@@ -24508,7 +24460,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="214" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D214" s="1" t="s">
         <v>156</v>
       </c>
@@ -24613,7 +24565,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="215" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D215" s="1" t="s">
         <v>156</v>
       </c>
@@ -24718,7 +24670,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="216" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D216" s="1" t="s">
         <v>156</v>
       </c>
@@ -24823,7 +24775,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="217" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D217" s="1" t="s">
         <v>156</v>
       </c>
@@ -24928,7 +24880,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="218" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D218" s="1" t="s">
         <v>156</v>
       </c>
@@ -25033,7 +24985,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="219" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D219" s="1" t="s">
         <v>156</v>
       </c>
@@ -25138,7 +25090,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="220" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D220" s="1" t="s">
         <v>156</v>
       </c>
@@ -25243,7 +25195,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="221" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>2013</v>
       </c>
@@ -25355,7 +25307,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="222" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D222" s="1" t="s">
         <v>237</v>
       </c>
@@ -25458,7 +25410,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="223" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D223" s="1" t="s">
         <v>237</v>
       </c>
@@ -25561,7 +25513,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="224" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D224" s="1" t="s">
         <v>237</v>
       </c>
@@ -25664,7 +25616,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="225" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D225" s="1" t="s">
         <v>237</v>
       </c>
@@ -25767,7 +25719,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="226" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D226" s="1" t="s">
         <v>237</v>
       </c>
@@ -25870,7 +25822,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="227" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D227" s="1" t="s">
         <v>237</v>
       </c>
@@ -25973,7 +25925,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="228" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D228" s="1" t="s">
         <v>237</v>
       </c>
@@ -26076,7 +26028,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="229" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D229" s="1" t="s">
         <v>237</v>
       </c>
@@ -26179,7 +26131,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="230" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D230" s="1" t="s">
         <v>237</v>
       </c>
@@ -26282,7 +26234,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="231" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D231" s="1" t="s">
         <v>237</v>
       </c>
@@ -26385,7 +26337,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="232" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D232" s="1" t="s">
         <v>237</v>
       </c>
@@ -26488,7 +26440,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="233" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D233" s="1" t="s">
         <v>237</v>
       </c>
@@ -26591,7 +26543,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="234" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D234" s="1" t="s">
         <v>237</v>
       </c>
@@ -26694,7 +26646,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="235" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D235" s="1" t="s">
         <v>237</v>
       </c>
@@ -26797,7 +26749,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="236" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D236" s="1" t="s">
         <v>237</v>
       </c>
@@ -26900,7 +26852,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="237" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D237" s="1" t="s">
         <v>237</v>
       </c>
@@ -27003,7 +26955,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="238" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D238" s="1" t="s">
         <v>237</v>
       </c>
@@ -27106,7 +27058,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="239" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D239" s="1" t="s">
         <v>237</v>
       </c>
@@ -27209,7 +27161,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="240" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D240" s="1" t="s">
         <v>237</v>
       </c>
@@ -27312,7 +27264,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="241" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D241" s="1" t="s">
         <v>237</v>
       </c>
@@ -27415,7 +27367,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="242" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D242" s="1" t="s">
         <v>237</v>
       </c>
@@ -27518,7 +27470,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="243" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D243" s="1" t="s">
         <v>237</v>
       </c>
@@ -27621,7 +27573,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="244" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D244" s="1" t="s">
         <v>237</v>
       </c>
@@ -27724,7 +27676,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="245" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D245" s="1" t="s">
         <v>237</v>
       </c>
@@ -27827,7 +27779,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="246" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D246" s="1" t="s">
         <v>237</v>
       </c>
@@ -27930,7 +27882,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="247" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D247" s="1" t="s">
         <v>237</v>
       </c>
@@ -28033,7 +27985,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="248" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D248" s="1" t="s">
         <v>237</v>
       </c>
@@ -28136,7 +28088,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="249" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D249" s="1" t="s">
         <v>237</v>
       </c>
@@ -28239,7 +28191,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="250" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D250" s="1" t="s">
         <v>237</v>
       </c>
@@ -28342,7 +28294,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="251" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D251" s="1" t="s">
         <v>237</v>
       </c>
@@ -28445,7 +28397,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="252" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D252" s="1" t="s">
         <v>237</v>
       </c>
@@ -28548,7 +28500,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="253" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D253" s="1" t="s">
         <v>237</v>
       </c>
@@ -28651,7 +28603,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="254" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D254" s="1" t="s">
         <v>237</v>
       </c>
@@ -28754,7 +28706,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="255" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D255" s="1" t="s">
         <v>237</v>
       </c>
@@ -28857,7 +28809,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="256" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D256" s="1" t="s">
         <v>237</v>
       </c>
@@ -28960,7 +28912,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="257" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D257" s="1" t="s">
         <v>237</v>
       </c>
@@ -29063,7 +29015,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="258" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D258" s="1" t="s">
         <v>237</v>
       </c>
@@ -29166,7 +29118,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="259" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D259" s="1" t="s">
         <v>237</v>
       </c>
@@ -29269,7 +29221,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="260" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D260" s="1" t="s">
         <v>237</v>
       </c>
@@ -29372,7 +29324,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="261" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D261" s="1" t="s">
         <v>237</v>
       </c>
@@ -29475,7 +29427,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="262" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D262" s="1" t="s">
         <v>237</v>
       </c>
@@ -29578,7 +29530,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="263" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D263" s="1" t="s">
         <v>237</v>
       </c>
@@ -29681,7 +29633,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="264" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D264" s="1" t="s">
         <v>237</v>
       </c>
@@ -29784,7 +29736,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="265" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D265" s="1" t="s">
         <v>237</v>
       </c>
@@ -29887,7 +29839,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="266" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D266" s="1" t="s">
         <v>237</v>
       </c>
@@ -29990,7 +29942,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="267" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D267" s="1" t="s">
         <v>237</v>
       </c>
@@ -30093,7 +30045,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="268" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D268" s="1" t="s">
         <v>237</v>
       </c>
@@ -30196,7 +30148,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="269" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D269" s="1" t="s">
         <v>237</v>
       </c>
@@ -30299,7 +30251,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="270" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D270" s="1" t="s">
         <v>237</v>
       </c>
@@ -30402,7 +30354,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="271" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D271" s="1" t="s">
         <v>237</v>
       </c>
@@ -30505,7 +30457,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="272" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D272" s="1" t="s">
         <v>237</v>
       </c>
@@ -30608,7 +30560,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="273" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D273" s="1" t="s">
         <v>237</v>
       </c>
@@ -30711,7 +30663,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="274" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D274" s="1" t="s">
         <v>237</v>
       </c>
@@ -30814,7 +30766,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="275" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D275" s="1" t="s">
         <v>237</v>
       </c>
@@ -30917,7 +30869,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="276" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D276" s="1" t="s">
         <v>237</v>
       </c>
@@ -31020,7 +30972,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="277" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D277" s="1" t="s">
         <v>237</v>
       </c>
@@ -31123,7 +31075,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="278" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D278" s="1" t="s">
         <v>237</v>
       </c>
@@ -31226,7 +31178,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="279" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D279" s="1" t="s">
         <v>237</v>
       </c>
@@ -31329,7 +31281,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="280" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D280" s="1" t="s">
         <v>237</v>
       </c>
@@ -31432,7 +31384,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="281" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D281" s="1" t="s">
         <v>237</v>
       </c>
@@ -31535,7 +31487,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="282" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D282" s="1" t="s">
         <v>237</v>
       </c>
@@ -31638,7 +31590,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="283" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D283" s="1" t="s">
         <v>237</v>
       </c>
@@ -31741,7 +31693,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="284" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D284" s="1" t="s">
         <v>237</v>
       </c>
@@ -31844,7 +31796,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="285" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>2023</v>
       </c>
@@ -31949,7 +31901,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="286" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D286" s="1" t="s">
         <v>182</v>
       </c>
@@ -32045,7 +31997,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="287" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D287" s="1" t="s">
         <v>182</v>
       </c>
@@ -32141,7 +32093,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="288" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D288" s="1" t="s">
         <v>182</v>
       </c>
@@ -32237,7 +32189,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="289" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D289" s="1" t="s">
         <v>182</v>
       </c>
@@ -32333,7 +32285,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="290" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D290" s="1" t="s">
         <v>182</v>
       </c>
@@ -32429,7 +32381,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="291" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D291" s="1" t="s">
         <v>182</v>
       </c>
@@ -32525,7 +32477,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="292" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D292" s="1" t="s">
         <v>182</v>
       </c>
@@ -32621,7 +32573,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="293" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D293" s="1" t="s">
         <v>182</v>
       </c>
@@ -32717,7 +32669,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="294" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D294" s="1" t="s">
         <v>182</v>
       </c>
@@ -32813,7 +32765,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="295" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D295" s="1" t="s">
         <v>182</v>
       </c>
@@ -32909,7 +32861,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="296" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D296" s="1" t="s">
         <v>182</v>
       </c>
@@ -33005,7 +32957,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="297" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>2020</v>
       </c>
@@ -33113,7 +33065,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="298" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D298" s="1" t="s">
         <v>187</v>
       </c>
@@ -33203,7 +33155,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="299" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D299" s="1" t="s">
         <v>187</v>
       </c>
@@ -33293,7 +33245,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="300" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D300" s="1" t="s">
         <v>187</v>
       </c>
@@ -33383,7 +33335,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="301" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D301" s="1" t="s">
         <v>187</v>
       </c>
@@ -33473,7 +33425,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="302" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D302" s="1" t="s">
         <v>187</v>
       </c>
@@ -33572,7 +33524,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="303" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D303" s="1" t="s">
         <v>187</v>
       </c>
@@ -33662,7 +33614,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="304" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D304" s="1" t="s">
         <v>187</v>
       </c>
@@ -33752,7 +33704,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="305" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D305" s="1" t="s">
         <v>187</v>
       </c>
@@ -33842,7 +33794,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="306" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D306" s="1" t="s">
         <v>187</v>
       </c>
@@ -33932,7 +33884,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="307" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D307" s="1" t="s">
         <v>187</v>
       </c>
@@ -34028,7 +33980,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="308" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D308" s="1" t="s">
         <v>187</v>
       </c>
@@ -34118,7 +34070,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="309" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D309" s="1" t="s">
         <v>187</v>
       </c>
@@ -34208,7 +34160,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="310" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D310" s="1" t="s">
         <v>187</v>
       </c>
@@ -34298,7 +34250,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="311" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D311" s="1" t="s">
         <v>187</v>
       </c>
@@ -34388,7 +34340,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="312" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D312" s="1" t="s">
         <v>187</v>
       </c>
@@ -34484,7 +34436,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="313" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D313" s="1" t="s">
         <v>187</v>
       </c>
@@ -34574,7 +34526,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="314" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D314" s="1" t="s">
         <v>187</v>
       </c>
@@ -34664,7 +34616,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="315" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D315" s="1" t="s">
         <v>187</v>
       </c>
@@ -34754,7 +34706,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="316" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D316" s="1" t="s">
         <v>187</v>
       </c>
@@ -34844,7 +34796,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="317" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D317" s="1" t="s">
         <v>187</v>
       </c>
@@ -34940,7 +34892,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="318" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D318" s="1" t="s">
         <v>187</v>
       </c>
@@ -35030,7 +34982,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="319" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D319" s="1" t="s">
         <v>187</v>
       </c>
@@ -35120,7 +35072,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="320" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D320" s="1" t="s">
         <v>187</v>
       </c>
@@ -35210,7 +35162,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="321" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D321" s="1" t="s">
         <v>187</v>
       </c>
@@ -35300,7 +35252,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="322" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D322" s="1" t="s">
         <v>187</v>
       </c>
@@ -35396,7 +35348,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="323" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D323" s="1" t="s">
         <v>187</v>
       </c>
@@ -35486,7 +35438,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="324" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D324" s="1" t="s">
         <v>187</v>
       </c>
@@ -35576,7 +35528,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="325" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D325" s="1" t="s">
         <v>187</v>
       </c>
@@ -35666,7 +35618,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="326" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D326" s="1" t="s">
         <v>187</v>
       </c>
@@ -35756,7 +35708,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="327" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>2016</v>
       </c>
@@ -35876,7 +35828,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="328" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D328" s="1" t="s">
         <v>190</v>
       </c>
@@ -35945,7 +35897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D329" s="1" t="s">
         <v>190</v>
       </c>
@@ -36056,7 +36008,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="330" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D330" s="1" t="s">
         <v>190</v>
       </c>
@@ -36167,7 +36119,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="331" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D331" s="1" t="s">
         <v>190</v>
       </c>
@@ -36278,7 +36230,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="332" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D332" s="1" t="s">
         <v>190</v>
       </c>
@@ -36389,7 +36341,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="333" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D333" s="1" t="s">
         <v>190</v>
       </c>
@@ -36500,7 +36452,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="334" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D334" s="1" t="s">
         <v>190</v>
       </c>
@@ -36569,7 +36521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D335" s="1" t="s">
         <v>190</v>
       </c>
@@ -36680,7 +36632,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="336" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D336" s="1" t="s">
         <v>190</v>
       </c>
@@ -36791,7 +36743,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="337" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:78" x14ac:dyDescent="0.25">
       <c r="D337" s="1" t="s">
         <v>190</v>
       </c>
@@ -36902,7 +36854,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="338" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:78" x14ac:dyDescent="0.25">
       <c r="D338" s="1" t="s">
         <v>190</v>
       </c>
@@ -37013,7 +36965,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="339" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A339" s="5">
         <v>2013</v>
       </c>
@@ -37147,7 +37099,7 @@
       <c r="BY339" s="9"/>
       <c r="BZ339" s="9"/>
     </row>
-    <row r="340" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A340" s="5"/>
       <c r="B340" s="6"/>
       <c r="C340" s="6"/>
@@ -37277,7 +37229,7 @@
       <c r="BY340" s="9"/>
       <c r="BZ340" s="9"/>
     </row>
-    <row r="341" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A341" s="5"/>
       <c r="B341" s="6"/>
       <c r="C341" s="6"/>
@@ -37407,7 +37359,7 @@
       <c r="BY341" s="9"/>
       <c r="BZ341" s="9"/>
     </row>
-    <row r="342" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A342" s="5"/>
       <c r="B342" s="6"/>
       <c r="C342" s="6"/>
@@ -37537,7 +37489,7 @@
       <c r="BY342" s="9"/>
       <c r="BZ342" s="9"/>
     </row>
-    <row r="343" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A343" s="5"/>
       <c r="B343" s="6"/>
       <c r="C343" s="6"/>
@@ -37667,7 +37619,7 @@
       <c r="BY343" s="9"/>
       <c r="BZ343" s="9"/>
     </row>
-    <row r="344" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A344" s="5"/>
       <c r="B344" s="6"/>
       <c r="C344" s="6"/>
@@ -37796,7 +37748,7 @@
       <c r="BY344" s="9"/>
       <c r="BZ344" s="9"/>
     </row>
-    <row r="345" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A345" s="5"/>
       <c r="B345" s="6"/>
       <c r="C345" s="6"/>
@@ -37926,7 +37878,7 @@
       <c r="BY345" s="9"/>
       <c r="BZ345" s="9"/>
     </row>
-    <row r="346" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A346" s="5"/>
       <c r="B346" s="6"/>
       <c r="C346" s="6"/>
@@ -38056,7 +38008,7 @@
       <c r="BY346" s="9"/>
       <c r="BZ346" s="9"/>
     </row>
-    <row r="347" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A347" s="5"/>
       <c r="B347" s="6"/>
       <c r="C347" s="6"/>
@@ -38186,7 +38138,7 @@
       <c r="BY347" s="9"/>
       <c r="BZ347" s="9"/>
     </row>
-    <row r="348" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A348" s="5"/>
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
@@ -38316,7 +38268,7 @@
       <c r="BY348" s="9"/>
       <c r="BZ348" s="9"/>
     </row>
-    <row r="349" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A349" s="5"/>
       <c r="B349" s="6"/>
       <c r="C349" s="6"/>
@@ -38445,7 +38397,7 @@
       <c r="BY349" s="9"/>
       <c r="BZ349" s="9"/>
     </row>
-    <row r="350" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A350" s="5"/>
       <c r="B350" s="6"/>
       <c r="C350" s="6"/>
@@ -38575,7 +38527,7 @@
       <c r="BY350" s="9"/>
       <c r="BZ350" s="9"/>
     </row>
-    <row r="351" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A351" s="5"/>
       <c r="B351" s="6"/>
       <c r="C351" s="6"/>
@@ -38705,7 +38657,7 @@
       <c r="BY351" s="9"/>
       <c r="BZ351" s="9"/>
     </row>
-    <row r="352" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A352" s="5"/>
       <c r="B352" s="6"/>
       <c r="C352" s="6"/>
@@ -38835,7 +38787,7 @@
       <c r="BY352" s="9"/>
       <c r="BZ352" s="9"/>
     </row>
-    <row r="353" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A353" s="5"/>
       <c r="B353" s="6"/>
       <c r="C353" s="6"/>
@@ -38965,7 +38917,7 @@
       <c r="BY353" s="9"/>
       <c r="BZ353" s="9"/>
     </row>
-    <row r="354" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A354" s="5"/>
       <c r="B354" s="6"/>
       <c r="C354" s="6"/>
@@ -39094,7 +39046,7 @@
       <c r="BY354" s="9"/>
       <c r="BZ354" s="9"/>
     </row>
-    <row r="355" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A355" s="5"/>
       <c r="B355" s="6"/>
       <c r="C355" s="6"/>
@@ -39224,7 +39176,7 @@
       <c r="BY355" s="9"/>
       <c r="BZ355" s="9"/>
     </row>
-    <row r="356" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A356" s="5"/>
       <c r="B356" s="6"/>
       <c r="C356" s="6"/>
@@ -39354,7 +39306,7 @@
       <c r="BY356" s="9"/>
       <c r="BZ356" s="9"/>
     </row>
-    <row r="357" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A357" s="5"/>
       <c r="B357" s="6"/>
       <c r="C357" s="6"/>
@@ -39484,7 +39436,7 @@
       <c r="BY357" s="9"/>
       <c r="BZ357" s="9"/>
     </row>
-    <row r="358" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A358" s="5"/>
       <c r="B358" s="6"/>
       <c r="C358" s="6"/>
@@ -39614,7 +39566,7 @@
       <c r="BY358" s="9"/>
       <c r="BZ358" s="9"/>
     </row>
-    <row r="359" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A359" s="5"/>
       <c r="B359" s="6"/>
       <c r="C359" s="6"/>
@@ -39743,7 +39695,7 @@
       <c r="BY359" s="9"/>
       <c r="BZ359" s="9"/>
     </row>
-    <row r="360" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A360" s="5"/>
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
@@ -39873,7 +39825,7 @@
       <c r="BY360" s="9"/>
       <c r="BZ360" s="9"/>
     </row>
-    <row r="361" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A361" s="5"/>
       <c r="B361" s="6"/>
       <c r="C361" s="6"/>
@@ -40003,7 +39955,7 @@
       <c r="BY361" s="9"/>
       <c r="BZ361" s="9"/>
     </row>
-    <row r="362" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A362" s="5"/>
       <c r="B362" s="6"/>
       <c r="C362" s="6"/>
@@ -40133,7 +40085,7 @@
       <c r="BY362" s="9"/>
       <c r="BZ362" s="9"/>
     </row>
-    <row r="363" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A363" s="5"/>
       <c r="B363" s="6"/>
       <c r="C363" s="6"/>
@@ -40263,7 +40215,7 @@
       <c r="BY363" s="9"/>
       <c r="BZ363" s="9"/>
     </row>
-    <row r="364" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A364" s="5"/>
       <c r="B364" s="6"/>
       <c r="C364" s="6"/>
@@ -40392,7 +40344,7 @@
       <c r="BY364" s="9"/>
       <c r="BZ364" s="9"/>
     </row>
-    <row r="365" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A365" s="5"/>
       <c r="B365" s="6"/>
       <c r="C365" s="6"/>
@@ -40522,7 +40474,7 @@
       <c r="BY365" s="9"/>
       <c r="BZ365" s="9"/>
     </row>
-    <row r="366" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A366" s="5"/>
       <c r="B366" s="6"/>
       <c r="C366" s="6"/>
@@ -40652,7 +40604,7 @@
       <c r="BY366" s="9"/>
       <c r="BZ366" s="9"/>
     </row>
-    <row r="367" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A367" s="5"/>
       <c r="B367" s="6"/>
       <c r="C367" s="6"/>
@@ -40782,7 +40734,7 @@
       <c r="BY367" s="9"/>
       <c r="BZ367" s="9"/>
     </row>
-    <row r="368" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A368" s="5"/>
       <c r="B368" s="6"/>
       <c r="C368" s="6"/>
@@ -40912,7 +40864,7 @@
       <c r="BY368" s="9"/>
       <c r="BZ368" s="9"/>
     </row>
-    <row r="369" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A369" s="5"/>
       <c r="B369" s="6"/>
       <c r="C369" s="6"/>
@@ -41041,7 +40993,7 @@
       <c r="BY369" s="9"/>
       <c r="BZ369" s="9"/>
     </row>
-    <row r="370" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A370" s="5"/>
       <c r="B370" s="6"/>
       <c r="C370" s="6"/>
@@ -41171,7 +41123,7 @@
       <c r="BY370" s="9"/>
       <c r="BZ370" s="9"/>
     </row>
-    <row r="371" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A371" s="5"/>
       <c r="B371" s="6"/>
       <c r="C371" s="6"/>
@@ -41301,7 +41253,7 @@
       <c r="BY371" s="9"/>
       <c r="BZ371" s="9"/>
     </row>
-    <row r="372" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A372" s="5"/>
       <c r="B372" s="6"/>
       <c r="C372" s="6"/>
@@ -41431,7 +41383,7 @@
       <c r="BY372" s="9"/>
       <c r="BZ372" s="9"/>
     </row>
-    <row r="373" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A373" s="5"/>
       <c r="B373" s="6"/>
       <c r="C373" s="6"/>
@@ -41561,7 +41513,7 @@
       <c r="BY373" s="9"/>
       <c r="BZ373" s="9"/>
     </row>
-    <row r="374" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A374" s="5"/>
       <c r="B374" s="6"/>
       <c r="C374" s="6"/>
@@ -41690,7 +41642,7 @@
       <c r="BY374" s="9"/>
       <c r="BZ374" s="9"/>
     </row>
-    <row r="375" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A375" s="5"/>
       <c r="B375" s="6"/>
       <c r="C375" s="6"/>
@@ -41820,7 +41772,7 @@
       <c r="BY375" s="9"/>
       <c r="BZ375" s="9"/>
     </row>
-    <row r="376" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A376" s="5"/>
       <c r="B376" s="6"/>
       <c r="C376" s="6"/>
@@ -41950,7 +41902,7 @@
       <c r="BY376" s="9"/>
       <c r="BZ376" s="9"/>
     </row>
-    <row r="377" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A377" s="5"/>
       <c r="B377" s="6"/>
       <c r="C377" s="6"/>
@@ -42080,7 +42032,7 @@
       <c r="BY377" s="9"/>
       <c r="BZ377" s="9"/>
     </row>
-    <row r="378" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A378" s="5"/>
       <c r="B378" s="6"/>
       <c r="C378" s="6"/>
@@ -42210,7 +42162,7 @@
       <c r="BY378" s="9"/>
       <c r="BZ378" s="9"/>
     </row>
-    <row r="379" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>2019</v>
       </c>
@@ -42329,7 +42281,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="380" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:78" x14ac:dyDescent="0.25">
       <c r="D380" s="1" t="s">
         <v>213</v>
       </c>
@@ -42440,7 +42392,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="381" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:78" x14ac:dyDescent="0.25">
       <c r="D381" s="1" t="s">
         <v>213</v>
       </c>
@@ -42551,7 +42503,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="382" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:78" x14ac:dyDescent="0.25">
       <c r="D382" s="1" t="s">
         <v>213</v>
       </c>
@@ -42662,7 +42614,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="383" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:78" x14ac:dyDescent="0.25">
       <c r="D383" s="1" t="s">
         <v>213</v>
       </c>
@@ -42773,7 +42725,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="384" spans="1:78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:78" x14ac:dyDescent="0.25">
       <c r="D384" s="1" t="s">
         <v>213</v>
       </c>
@@ -42884,7 +42836,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="385" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D385" s="1" t="s">
         <v>213</v>
       </c>
@@ -42994,7 +42946,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="386" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D386" s="1" t="s">
         <v>213</v>
       </c>
@@ -43105,7 +43057,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="387" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D387" s="1" t="s">
         <v>213</v>
       </c>
@@ -43216,7 +43168,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="388" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D388" s="1" t="s">
         <v>213</v>
       </c>
@@ -43327,7 +43279,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="389" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D389" s="1" t="s">
         <v>213</v>
       </c>
@@ -43438,7 +43390,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="390" spans="4:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D390" s="1" t="s">
         <v>213</v>
       </c>
@@ -43550,13 +43502,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS390" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="McKee et al., 2016"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="AE71:AK86">
     <cfRule type="colorScale" priority="1">
